--- a/biology/Botanique/Leersia/Leersia.xlsx
+++ b/biology/Botanique/Leersia/Leersia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leersia est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae, à répartition pantropicale, qui comprend approximativement 18 espèces.
-Ces plantes, très proches génétiquement et phénotypiquement du riz cultivé (elles appartiennent à la même tribu des Oryzeae), sont des mauvaises herbes des rizières, notamment Leersia hexandra,  Leersia japonica, Leersia ligularis, Leersia oryzoides, Leersia sayanuka et  Leersia virginica[2].
-Certaines espèces sont parfois cultivées comme plantes fourragères, notamment Leersia hexandra[3].
+Ces plantes, très proches génétiquement et phénotypiquement du riz cultivé (elles appartiennent à la même tribu des Oryzeae), sont des mauvaises herbes des rizières, notamment Leersia hexandra,  Leersia japonica, Leersia ligularis, Leersia oryzoides, Leersia sayanuka et  Leersia virginica.
+Certaines espèces sont parfois cultivées comme plantes fourragères, notamment Leersia hexandra.
 Étymologie
-le nom générique « Leersia » a été forgé par le botaniste suédois, Olof Peter Swartz, qui a été le premier à décrire et à publier ce genre, en hommage à un botaniste et pharmacien allemand, Johann Daniel Leers (1727-1774)[4].
+le nom générique « Leersia » a été forgé par le botaniste suédois, Olof Peter Swartz, qui a été le premier à décrire et à publier ce genre, en hommage à un botaniste et pharmacien allemand, Johann Daniel Leers (1727-1774).
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes du genre Leersia sont des plantes herbacées, vivaces, rhizomateuses, aux tiges (chaumes), dressées ou décombantes, de 20 à 150 cm de long.
 Les feuilles ont une gaine glabre à scabre-hispiduleuse, une ligule de 1 à 12 mm de long, plus ou moins tronquée, et un limbe linéaire, plus ou moins large (25 mm) ou étroit (4 mm), s'enroulant souvent en séchant.
@@ -525,8 +539,8 @@
 Les fleurons sont généralement parfaits, parfois avec seulement les étamines et le pistil bien développés.
 La lemme peut être aristée ou non et présente 5 nervures.
 Les étamines sont en nombre variable : 1, 2, 3 ou 6 selon les espèces.
-La pistil, de 2 à 5 mm de long, présente 2 style séparés, aux stigmates plumeux, exsertés simultanément avec les anthères lors de l'anthèse[5].
-Le nombre chromosomique de base est x=12[5].
+La pistil, de 2 à 5 mm de long, présente 2 style séparés, aux stigmates plumeux, exsertés simultanément avec les anthères lors de l'anthèse.
+Le nombre chromosomique de base est x=12.
 </t>
         </is>
       </c>
@@ -557,8 +571,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon GRIN[6] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN :
 Aplexia Raf.
 Asprella Schreb.
 Blepharochloa Endl.
@@ -568,8 +587,43 @@
 Laertia Gromov, orth. var.
 Pseudoryza Griff.
 Turraya Wall., nom. inval
-Liste d'espèces et variétés
-Selon World Checklist of Selected Plant Families (WCSP)  (3 septembre 2016)[7] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Leersia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leersia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (3 septembre 2016) :
 Leersia angustifolia Prodoehl (1922)
 Leersia denudata Launert (1965)
 Leersia drepanothrix Stapf (1905)
